--- a/Input Files/Input.xlsx
+++ b/Input Files/Input.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abeer\PycharmProjects\CaesarStoneTest-master\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B9F4F6-9A76-45C3-9C5F-C8E3E0A95CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1837A45E-71B9-4C6D-9896-B2A80D0F4CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,10 +97,10 @@
     <t>Fabricator_Account Page</t>
   </si>
   <si>
-    <t>https://caesarstone--cspartial.lightning.force.com/lightning/r/Contact/0035t000001ynRhAAI/view</t>
-  </si>
-  <si>
     <t>Einav AUS Fabricator Account</t>
+  </si>
+  <si>
+    <t>https://caesarstone--cspartial.lightning.force.com/lightning/r/Contact/0035t000006FYKtAAO/view</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -517,7 +517,7 @@
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -586,15 +586,15 @@
         <v>7</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="13.95" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -603,8 +603,10 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{0D73E1A8-B71B-4065-AF6B-64BED0789AB9}"/>
     <hyperlink ref="B21" r:id="rId3" xr:uid="{01F431FD-4E97-490A-98BC-E06141698448}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{04298E04-A694-477A-AE99-F203C2F6C0C7}"/>
+    <hyperlink ref="B9" r:id="rId5" xr:uid="{1A7F44C7-3EE6-4935-86A4-1BE2FCD94356}"/>
+    <hyperlink ref="B24" r:id="rId6" xr:uid="{8A43FAD3-2620-4F1A-9E86-E6945224FDD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>